--- a/数据整理/stocks/A股/上证主板/603055-台华新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603055-台华新材.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1153,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,17 +1165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1184,13 +1205,975 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1167</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>17</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>5.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603055-台华新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603055-台华新材.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2120,7 +2121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2131,17 +2132,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2151,14 +2172,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.86</v>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2167,13 +2210,573 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>5.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603055-台华新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603055-台华新材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2707,7 +2708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2718,17 +2719,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2738,14 +2759,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2754,14 +2797,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.86</v>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2770,13 +2835,401 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>17</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603055-台华新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603055-台华新材.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,699 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银趋势优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>78.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7615</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002446</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>68.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9052</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519727</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银成长30混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>77.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3707</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.86</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009381</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇安核心资产混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2434</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006648</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇安多因子混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2128</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001980</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>30.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1981</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003889</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇安丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1829</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005109</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇安多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1103</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006649</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇安多因子混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0806</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005110</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇安多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0356</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003890</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇安丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>68.79</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007775</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇安量化先锋混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>59.44</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002654</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>上投摩根策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>78.77</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009382</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇安核心资产混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007776</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇安量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>59.44</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1156,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>005109</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银趋势优先混合</t>
+          <t>汇安多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.98</t>
+          <t>93.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2570</t>
+          <t>0.0923</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1245,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009381</t>
+          <t>010558</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安核心资产混合A</t>
+          <t>汇安鑫利优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.76</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1167</t>
+          <t>0.0708</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1283,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003886</t>
+          <t>003889</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合A</t>
+          <t>汇安丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>92.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2462</t>
+          <t>0.0359</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1321,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003887</t>
+          <t>005110</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合C</t>
+          <t>汇安多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>93.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2258</t>
+          <t>0.0243</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1359,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006648</t>
+          <t>010559</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安多因子混合A</t>
+          <t>汇安鑫利优选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1439</t>
+          <t>0.0237</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1397,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>005599</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>汇安量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1404</t>
+          <t>0.0141</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1435,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005109</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安多策略灵活配置混合A</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1179</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1473,32 +871,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003889</t>
+          <t>003890</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合A</t>
+          <t>汇安丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>92.02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0981</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1511,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010558</t>
+          <t>007776</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇安鑫利优选混合A</t>
+          <t>汇安量化先锋混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0923</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1549,566 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006649</t>
+          <t>005600</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇安多因子混合C</t>
+          <t>汇安量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.56</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0815</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004558</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇安丰裕灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0810</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005599</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇安量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0595</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005110</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇安多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.49</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010559</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇安鑫利优选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0306</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004560</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇安丰益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>28.90</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003855</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇安丰华灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>22.73</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003854</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇安丰华灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>22.73</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003890</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇安丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005600</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇安量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007776</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇安量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009382</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>汇安核心资产混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004559</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇安丰裕灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004561</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>汇安丰益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>28.90</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2708,7 +1576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2759,36 +1627,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005109</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安多策略灵活配置混合A</t>
+          <t>交银趋势优先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>75.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0923</t>
+          <t>2.2570</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2797,36 +1665,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010558</t>
+          <t>009381</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安鑫利优选混合A</t>
+          <t>汇安核心资产混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0708</t>
+          <t>1.1167</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2835,36 +1703,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003889</t>
+          <t>003886</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合A</t>
+          <t>汇安丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0359</t>
+          <t>0.2462</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2873,36 +1741,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005110</t>
+          <t>003887</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安多策略灵活配置混合C</t>
+          <t>汇安丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0243</t>
+          <t>0.2258</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2911,36 +1779,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010559</t>
+          <t>006648</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安鑫利优选混合C</t>
+          <t>汇安多因子混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>91.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.1439</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2949,36 +1817,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005599</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安量化优选灵活配置混合A</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.1404</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2987,36 +1855,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>005109</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>汇安多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>89.49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.1179</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -3025,32 +1893,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003890</t>
+          <t>003889</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合C</t>
+          <t>汇安丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0981</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3063,36 +1931,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007776</t>
+          <t>010558</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合C</t>
+          <t>汇安鑫利优选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0923</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -3101,36 +1969,566 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005600</t>
+          <t>006649</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇安量化优选灵活配置混合C</t>
+          <t>汇安多因子混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>91.56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0815</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3144,96 +2542,698 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7615</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9052</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3707</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.86</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.19</v>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603055-台华新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603055-台华新材.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>4.86</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.19</v>
       </c>
     </row>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005109</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安多策略灵活配置混合A</t>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>76.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0923</t>
+          <t>0.1906</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010558</t>
+          <t>162204</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安鑫利优选混合A</t>
+          <t>泰达宏利行业精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0708</t>
+          <t>0.1491</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -681,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003889</t>
+          <t>013280</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合A</t>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>76.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0359</t>
+          <t>0.1101</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -719,36 +736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005110</t>
+          <t>006648</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安多策略灵活配置混合C</t>
+          <t>汇安多因子混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0243</t>
+          <t>0.0930</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -757,36 +774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010559</t>
+          <t>015601</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安鑫利优选混合C</t>
+          <t>泰达宏利行业精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.0719</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -795,32 +812,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005599</t>
+          <t>006649</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安量化优选灵活配置混合A</t>
+          <t>汇安多因子混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.0491</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -833,36 +850,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>020034</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>国泰民安增利债券C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>38.31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -871,32 +888,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003890</t>
+          <t>003889</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合C</t>
+          <t>汇安丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0165</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -909,36 +926,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007776</t>
+          <t>003890</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合C</t>
+          <t>汇安丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -947,32 +964,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005600</t>
+          <t>020033</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇安量化优选灵活配置混合C</t>
+          <t>国泰民安增利债券A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>38.31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -985,6 +1002,442 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1570,7 +2023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2536,7 +2989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603055-台华新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603055-台华新材.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.71</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>4.86</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.19</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.72</t>
+          <t>82.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1906</t>
+          <t>0.2322</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -670,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.08</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1491</t>
+          <t>0.1935</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013280</t>
+          <t>013993</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合C</t>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.72</t>
+          <t>87.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1101</t>
+          <t>0.1637</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -736,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006648</t>
+          <t>013280</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安多因子混合A</t>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>82.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0930</t>
+          <t>0.1281</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -774,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>015601</t>
+          <t>010043</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰达宏利行业精选混合C</t>
+          <t>天弘安康颐和混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.08</t>
+          <t>23.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0719</t>
+          <t>0.0922</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -812,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006649</t>
+          <t>015601</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安多因子混合C</t>
+          <t>泰达宏利行业精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0491</t>
+          <t>0.0909</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -850,32 +867,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>020034</t>
+          <t>013994</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰民安增利债券C</t>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>38.31</t>
+          <t>87.20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0662</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -888,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003889</t>
+          <t>006973</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合A</t>
+          <t>太平睿盈混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0165</t>
+          <t>0.0463</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -926,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003890</t>
+          <t>020034</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合C</t>
+          <t>国泰民安增利债券C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>49.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0222</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -964,35 +981,111 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>020033</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>国泰民安增利债券A</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>38.31</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1058,36 +1151,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005109</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安多策略灵活配置混合A</t>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>76.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0923</t>
+          <t>0.1906</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1096,36 +1189,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010558</t>
+          <t>162204</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安鑫利优选混合A</t>
+          <t>泰达宏利行业精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0708</t>
+          <t>0.1491</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1134,36 +1227,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003889</t>
+          <t>013280</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合A</t>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>76.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0359</t>
+          <t>0.1101</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1172,36 +1265,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005110</t>
+          <t>006648</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安多策略灵活配置混合C</t>
+          <t>汇安多因子混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0243</t>
+          <t>0.0930</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1210,36 +1303,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010559</t>
+          <t>015601</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安鑫利优选混合C</t>
+          <t>泰达宏利行业精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.0719</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1248,32 +1341,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005599</t>
+          <t>006649</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安量化优选灵活配置混合A</t>
+          <t>汇安多因子混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.0491</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1286,36 +1379,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>020034</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>国泰民安增利债券C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>38.31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1324,32 +1417,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003890</t>
+          <t>003889</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合C</t>
+          <t>汇安丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0165</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1362,36 +1455,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007776</t>
+          <t>003890</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合C</t>
+          <t>汇安丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1400,32 +1493,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005600</t>
+          <t>020033</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇安量化优选灵活配置混合C</t>
+          <t>国泰民安增利债券A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>38.31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1438,6 +1531,442 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2023,7 +2552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2989,7 +3518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
